--- a/Results/Scenario1-AllMembersLowExpertiseInAllSkills/LearningBased/WithFigures/TeamStats.xlsx
+++ b/Results/Scenario1-AllMembersLowExpertiseInAllSkills/LearningBased/WithFigures/TeamStats.xlsx
@@ -615,6 +615,21 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Team Velocity - Learning Based</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -787,11 +802,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1316821248"/>
-        <c:axId val="-1316825600"/>
+        <c:axId val="2051701600"/>
+        <c:axId val="2051707040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1316821248"/>
+        <c:axId val="2051701600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -827,7 +842,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1316825600"/>
+        <c:crossAx val="2051707040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -835,7 +850,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1316825600"/>
+        <c:axId val="2051707040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -846,7 +861,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1316821248"/>
+        <c:crossAx val="2051701600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -892,6 +907,21 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Story Points - Learning Based</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
@@ -1057,11 +1087,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1316827232"/>
-        <c:axId val="-1316832672"/>
+        <c:axId val="2051714656"/>
+        <c:axId val="2051704864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1316827232"/>
+        <c:axId val="2051714656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1097,7 +1127,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1316832672"/>
+        <c:crossAx val="2051704864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1105,7 +1135,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1316832672"/>
+        <c:axId val="2051704864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1116,7 +1146,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1316827232"/>
+        <c:crossAx val="2051714656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1172,7 +1202,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-NZ"/>
-              <a:t>Active vs. Idle Time Periods</a:t>
+              <a:t>Active vs. Idle Time Periods - Learning Based, First Scenario</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1181,7 +1211,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35917599594563093"/>
+          <c:x val="0.20291573019883194"/>
           <c:y val="2.2884062133652293E-3"/>
         </c:manualLayout>
       </c:layout>
@@ -1196,7 +1226,7 @@
           <c:yMode val="edge"/>
           <c:x val="6.4240763827198274E-2"/>
           <c:y val="9.0645211627121691E-2"/>
-          <c:w val="0.83664274937314043"/>
+          <c:w val="0.91477284844806106"/>
           <c:h val="0.80715600839971213"/>
         </c:manualLayout>
       </c:layout>
@@ -1489,11 +1519,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1316826688"/>
-        <c:axId val="-1316824512"/>
+        <c:axId val="2051713568"/>
+        <c:axId val="2051699424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1316826688"/>
+        <c:axId val="2051713568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1529,7 +1559,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1316824512"/>
+        <c:crossAx val="2051699424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1537,7 +1567,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1316824512"/>
+        <c:axId val="2051699424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -1575,21 +1605,21 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1316826688"/>
+        <c:crossAx val="2051713568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.88087688586636015"/>
-          <c:y val="0.83776064856675481"/>
-          <c:w val="0.11750059928020019"/>
-          <c:h val="0.15599110152342985"/>
+          <c:x val="0.80242757070673942"/>
+          <c:y val="0.94488851137193741"/>
+          <c:w val="0.18686337276067982"/>
+          <c:h val="4.1381051347871262E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1973,7 +2003,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2326,7 +2356,10 @@
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="5">
+        <f>AVERAGE(B2:B19)</f>
+        <v>1.8577564623691269</v>
+      </c>
       <c r="C21" s="5">
         <f>AVERAGE(C2:C19)</f>
         <v>121.66666666666667</v>

--- a/Results/Scenario1-AllMembersLowExpertiseInAllSkills/LearningBased/WithFigures/TeamStats.xlsx
+++ b/Results/Scenario1-AllMembersLowExpertiseInAllSkills/LearningBased/WithFigures/TeamStats.xlsx
@@ -802,11 +802,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2051701600"/>
-        <c:axId val="2051707040"/>
+        <c:axId val="1726495680"/>
+        <c:axId val="1726499488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2051701600"/>
+        <c:axId val="1726495680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -842,7 +842,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2051707040"/>
+        <c:crossAx val="1726499488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -850,7 +850,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2051707040"/>
+        <c:axId val="1726499488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -861,7 +861,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2051701600"/>
+        <c:crossAx val="1726495680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1087,11 +1087,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2051714656"/>
-        <c:axId val="2051704864"/>
+        <c:axId val="1726484800"/>
+        <c:axId val="1726487520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2051714656"/>
+        <c:axId val="1726484800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1127,7 +1127,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2051704864"/>
+        <c:crossAx val="1726487520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1135,7 +1135,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2051704864"/>
+        <c:axId val="1726487520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1146,7 +1146,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2051714656"/>
+        <c:crossAx val="1726484800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1519,11 +1519,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2051713568"/>
-        <c:axId val="2051699424"/>
+        <c:axId val="1726488608"/>
+        <c:axId val="1726498400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2051713568"/>
+        <c:axId val="1726488608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,7 +1559,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2051699424"/>
+        <c:crossAx val="1726498400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1567,7 +1567,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2051699424"/>
+        <c:axId val="1726498400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -1605,7 +1605,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2051713568"/>
+        <c:crossAx val="1726488608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1620,6 +1620,478 @@
           <c:y val="0.94488851137193741"/>
           <c:w val="0.18686337276067982"/>
           <c:h val="4.1381051347871262E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>Team Velocity vs Story</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" baseline="0"/>
+              <a:t> Points</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t> - Learning Based</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12711967112419434"/>
+          <c:y val="9.5808371187279459E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.5833274006327852E-2"/>
+          <c:y val="0.13412493009257956"/>
+          <c:w val="0.86648807858317178"/>
+          <c:h val="0.73392707700478388"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Story Points</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>TeamStats!$C$2:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1757452624"/>
+        <c:axId val="1757453168"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Team Velocity</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>TeamStats!$A$2:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>SUM</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>AVERAGE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TeamStats!$B$2:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.61103351955307195</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47039017627252899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51343250444049704</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51352751767274796</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97363690832834004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.13512531783508</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2077965348733799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.59163769359281</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.87681627381336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8962689626896201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.01228076493679</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.17236856487047</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2027183935523502</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7286902286902199</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2708921747798598</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3293605554979702</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6036369012418601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1757461328"/>
+        <c:axId val="1757460240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1757452624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="2000" b="0"/>
+                  <a:t>Sprints</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42647195487964024"/>
+              <c:y val="0.9097339293401947"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1757453168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1757453168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1757452624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1757460240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1757461328"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1757461328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1757460240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75183469454318486"/>
+          <c:y val="0.74094548025894913"/>
+          <c:w val="0.18400439075028518"/>
+          <c:h val="0.11549963185444773"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1729,6 +2201,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>288151</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>57831</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2002,8 +2506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V36" sqref="V36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V59" sqref="V59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Results/Scenario1-AllMembersLowExpertiseInAllSkills/LearningBased/WithFigures/TeamStats.xlsx
+++ b/Results/Scenario1-AllMembersLowExpertiseInAllSkills/LearningBased/WithFigures/TeamStats.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\CourseWork\GitHubRepositories\AgileSoftwareModel\AgileSoftwareModel\Results\Scenario1-AllMembersLowExpertiseInAllSkills\LearningBased\WithFigures\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27945" windowHeight="8145"/>
   </bookViews>
@@ -603,7 +598,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-NZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -801,12 +796,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1726495680"/>
-        <c:axId val="1726499488"/>
+        <c:axId val="110375680"/>
+        <c:axId val="110377600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1726495680"/>
+        <c:axId val="110375680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -842,7 +838,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1726499488"/>
+        <c:crossAx val="110377600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -850,7 +846,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1726499488"/>
+        <c:axId val="110377600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -861,7 +857,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1726495680"/>
+        <c:crossAx val="110375680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -895,7 +891,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-NZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1086,12 +1082,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1726484800"/>
-        <c:axId val="1726487520"/>
+        <c:axId val="110414464"/>
+        <c:axId val="110416640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1726484800"/>
+        <c:axId val="110414464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1127,7 +1124,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1726487520"/>
+        <c:crossAx val="110416640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1135,7 +1132,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1726487520"/>
+        <c:axId val="110416640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1146,7 +1143,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1726484800"/>
+        <c:crossAx val="110414464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1180,7 +1177,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-NZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1519,11 +1516,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1726488608"/>
-        <c:axId val="1726498400"/>
+        <c:axId val="111052288"/>
+        <c:axId val="111054208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1726488608"/>
+        <c:axId val="111052288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,7 +1556,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1726498400"/>
+        <c:crossAx val="111054208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1567,7 +1564,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1726498400"/>
+        <c:axId val="111054208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -1605,7 +1602,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1726488608"/>
+        <c:crossAx val="111052288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1639,7 +1636,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-NZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1701,6 +1698,168 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Team Velocity</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>TeamStats!$A$2:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>SUM</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>AVERAGE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TeamStats!$B$2:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.61103351955307195</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47039017627252899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51343250444049704</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51352751767274796</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97363690832834004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.13512531783508</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2077965348733799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.59163769359281</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.87681627381336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8962689626896201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.01228076493679</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.17236856487047</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2027183935523502</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7286902286902199</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2708921747798598</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3293605554979702</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6036369012418601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="111089536"/>
+        <c:axId val="111099904"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -1788,173 +1947,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1757452624"/>
-        <c:axId val="1757453168"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Team Velocity</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>TeamStats!$A$2:$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>SUM</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>AVERAGE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>TeamStats!$B$2:$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0.61103351955307195</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.47039017627252899</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.51343250444049704</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.51352751767274796</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.97363690832834004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.13512531783508</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2077965348733799</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.59163769359281</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.87681627381336</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.8962689626896201</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.01228076493679</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.17236856487047</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.2027183935523502</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.7286902286902199</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.2708921747798598</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.3293605554979702</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.6036369012418601</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1757461328"/>
-        <c:axId val="1757460240"/>
+        <c:axId val="129798144"/>
+        <c:axId val="128697856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1757452624"/>
+        <c:axId val="111089536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1990,7 +1987,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1757453168"/>
+        <c:crossAx val="111099904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1998,14 +1995,14 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1757453168"/>
+        <c:axId val="111099904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2023,28 +2020,21 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1757452624"/>
+        <c:crossAx val="111089536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1757460240"/>
+        <c:axId val="128697856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -2059,23 +2049,21 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1757461328"/>
+        <c:crossAx val="129798144"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1757461328"/>
+        <c:axId val="129798144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1757460240"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="128697856"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2496,7 +2484,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2506,8 +2494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V59" sqref="V59"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Results/Scenario1-AllMembersLowExpertiseInAllSkills/LearningBased/WithFigures/TeamStats.xlsx
+++ b/Results/Scenario1-AllMembersLowExpertiseInAllSkills/LearningBased/WithFigures/TeamStats.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\CourseWork\GitHubRepositories\AgileSoftwareModel\AgileSoftwareModel\Results\Scenario1-AllMembersLowExpertiseInAllSkills\LearningBased\WithFigures\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27945" windowHeight="8145"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>sprint</t>
   </si>
@@ -35,6 +40,15 @@
   </si>
   <si>
     <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>Idle Periods</t>
+  </si>
+  <si>
+    <t>average idle period</t>
+  </si>
+  <si>
+    <t>average working period</t>
   </si>
 </sst>
 </file>
@@ -177,7 +191,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,8 +383,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -485,6 +505,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -530,13 +565,25 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -598,7 +645,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-NZ"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -796,13 +843,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110375680"/>
-        <c:axId val="110377600"/>
+        <c:axId val="2125326512"/>
+        <c:axId val="2125327056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110375680"/>
+        <c:axId val="2125326512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -838,7 +884,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110377600"/>
+        <c:crossAx val="2125327056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -846,7 +892,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110377600"/>
+        <c:axId val="2125327056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -857,7 +903,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110375680"/>
+        <c:crossAx val="2125326512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -891,7 +937,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-NZ"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1082,13 +1128,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110414464"/>
-        <c:axId val="110416640"/>
+        <c:axId val="2125325424"/>
+        <c:axId val="2125323792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110414464"/>
+        <c:axId val="2125325424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1124,7 +1169,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110416640"/>
+        <c:crossAx val="2125323792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1132,7 +1177,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110416640"/>
+        <c:axId val="2125323792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1143,7 +1188,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110414464"/>
+        <c:crossAx val="2125325424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1177,7 +1222,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-NZ"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1516,11 +1561,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="111052288"/>
-        <c:axId val="111054208"/>
+        <c:axId val="2125327600"/>
+        <c:axId val="2125335216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="111052288"/>
+        <c:axId val="2125327600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1556,7 +1601,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111054208"/>
+        <c:crossAx val="2125335216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1564,7 +1609,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111054208"/>
+        <c:axId val="2125335216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80"/>
@@ -1602,7 +1647,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111052288"/>
+        <c:crossAx val="2125327600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1636,7 +1681,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-NZ"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1658,11 +1703,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-NZ"/>
-              <a:t>Team Velocity vs Story</a:t>
+              <a:t>Team Velocity vs Average</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-NZ" baseline="0"/>
-              <a:t> Points</a:t>
+              <a:t> Working Hours</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-NZ"/>
@@ -1675,8 +1720,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12711967112419434"/>
-          <c:y val="9.5808371187279459E-3"/>
+          <c:x val="0.16910205801270944"/>
+          <c:y val="8.3760012189950251E-4"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1688,8 +1733,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.5833274006327852E-2"/>
-          <c:y val="0.13412493009257956"/>
+          <c:x val="7.63289283236782E-2"/>
+          <c:y val="0.13412502225951009"/>
           <c:w val="0.86648807858317178"/>
           <c:h val="0.73392707700478388"/>
         </c:manualLayout>
@@ -1853,8 +1898,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111089536"/>
-        <c:axId val="111099904"/>
+        <c:axId val="2125324880"/>
+        <c:axId val="2125329776"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1863,7 +1908,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Story Points</c:v>
+            <c:strRef>
+              <c:f>TeamStats!$L$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average working period</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln>
@@ -1877,60 +1930,60 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>TeamStats!$C$2:$C$18</c:f>
+              <c:f>TeamStats!$L$35:$L$51</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>49</c:v>
+                  <c:v>65.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>50.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>42.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75</c:v>
+                  <c:v>50.833333333333329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>87</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>124</c:v>
+                  <c:v>56.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>148</c:v>
+                  <c:v>64.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>149</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>159</c:v>
+                  <c:v>65.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>172</c:v>
+                  <c:v>63.833333333333329</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>175</c:v>
+                  <c:v>55.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>210</c:v>
+                  <c:v>60.166666666666671</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>257</c:v>
+                  <c:v>70.166666666666671</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>260</c:v>
+                  <c:v>66.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1947,16 +2000,27 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="129798144"/>
-        <c:axId val="128697856"/>
+        <c:axId val="2125330320"/>
+        <c:axId val="2125321072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111089536"/>
+        <c:axId val="2125324880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1987,7 +2051,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111099904"/>
+        <c:crossAx val="2125329776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1995,7 +2059,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111099904"/>
+        <c:axId val="2125329776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2020,18 +2084,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111089536"/>
+        <c:crossAx val="2125324880"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="128697856"/>
+        <c:axId val="2125321072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2049,21 +2113,22 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129798144"/>
+        <c:crossAx val="2125330320"/>
         <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="129798144"/>
+        <c:axId val="2125330320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128697856"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="2125321072"/>
+        <c:crosses val="max"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2076,10 +2141,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.75183469454318486"/>
-          <c:y val="0.74094548025894913"/>
-          <c:w val="0.18400439075028518"/>
-          <c:h val="0.11549963185444773"/>
+          <c:x val="0.66367170306489565"/>
+          <c:y val="0.73803103847728424"/>
+          <c:w val="0.26450090468726678"/>
+          <c:h val="0.1054013045449789"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2132,16 +2197,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>153523</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>153802</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>395977</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>15256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>34180</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>129990</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>276635</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>181944</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2196,16 +2261,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>299357</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>230085</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>288151</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>57831</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>218878</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>57832</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2484,7 +2549,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2492,10 +2557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AQ38" sqref="AQ38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2865,7 +2930,585 @@
         <v>12.722222222222221</v>
       </c>
     </row>
+    <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="J34" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>1</v>
+      </c>
+      <c r="B35" s="7">
+        <v>16</v>
+      </c>
+      <c r="C35" s="8">
+        <v>32</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0</v>
+      </c>
+      <c r="E35" s="8">
+        <v>0</v>
+      </c>
+      <c r="F35" s="8">
+        <v>40</v>
+      </c>
+      <c r="G35" s="8">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7">
+        <f>AVERAGE(B35:G35)</f>
+        <v>14.666666666666666</v>
+      </c>
+      <c r="L35" s="7">
+        <f>80-J35</f>
+        <v>65.333333333333329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>2</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0</v>
+      </c>
+      <c r="C36" s="8">
+        <v>16</v>
+      </c>
+      <c r="D36" s="8">
+        <v>80</v>
+      </c>
+      <c r="E36" s="8">
+        <v>80</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0</v>
+      </c>
+      <c r="G36" s="8">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7">
+        <f t="shared" ref="J36:J52" si="2">AVERAGE(B36:G36)</f>
+        <v>29.333333333333332</v>
+      </c>
+      <c r="L36" s="7">
+        <f t="shared" ref="L36:L52" si="3">80-J36</f>
+        <v>50.666666666666671</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>3</v>
+      </c>
+      <c r="B37" s="7">
+        <v>40</v>
+      </c>
+      <c r="C37" s="8">
+        <v>24</v>
+      </c>
+      <c r="D37" s="8">
+        <v>8</v>
+      </c>
+      <c r="E37" s="8">
+        <v>56</v>
+      </c>
+      <c r="F37" s="8">
+        <v>64</v>
+      </c>
+      <c r="G37" s="8">
+        <v>32</v>
+      </c>
+      <c r="J37" s="7">
+        <f t="shared" si="2"/>
+        <v>37.333333333333336</v>
+      </c>
+      <c r="L37" s="7">
+        <f t="shared" si="3"/>
+        <v>42.666666666666664</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>4</v>
+      </c>
+      <c r="B38" s="7">
+        <v>52</v>
+      </c>
+      <c r="C38" s="8">
+        <v>70</v>
+      </c>
+      <c r="D38" s="8">
+        <v>8</v>
+      </c>
+      <c r="E38" s="8">
+        <v>56</v>
+      </c>
+      <c r="F38" s="8">
+        <v>32</v>
+      </c>
+      <c r="G38" s="8">
+        <v>70</v>
+      </c>
+      <c r="J38" s="7">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="L38" s="7">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>5</v>
+      </c>
+      <c r="B39" s="7">
+        <v>42</v>
+      </c>
+      <c r="C39" s="8">
+        <v>52</v>
+      </c>
+      <c r="D39" s="8">
+        <v>59</v>
+      </c>
+      <c r="E39" s="8">
+        <v>40</v>
+      </c>
+      <c r="F39" s="8">
+        <v>40</v>
+      </c>
+      <c r="G39" s="8">
+        <v>40</v>
+      </c>
+      <c r="J39" s="7">
+        <f t="shared" si="2"/>
+        <v>45.5</v>
+      </c>
+      <c r="L39" s="7">
+        <f t="shared" si="3"/>
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>6</v>
+      </c>
+      <c r="B40" s="7">
+        <v>14</v>
+      </c>
+      <c r="C40" s="8">
+        <v>34</v>
+      </c>
+      <c r="D40" s="8">
+        <v>37</v>
+      </c>
+      <c r="E40" s="8">
+        <v>32</v>
+      </c>
+      <c r="F40" s="8">
+        <v>18</v>
+      </c>
+      <c r="G40" s="8">
+        <v>40</v>
+      </c>
+      <c r="J40" s="7">
+        <f t="shared" si="2"/>
+        <v>29.166666666666668</v>
+      </c>
+      <c r="L40" s="7">
+        <f t="shared" si="3"/>
+        <v>50.833333333333329</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>7</v>
+      </c>
+      <c r="B41" s="7">
+        <v>42</v>
+      </c>
+      <c r="C41" s="8">
+        <v>22</v>
+      </c>
+      <c r="D41" s="8">
+        <v>44</v>
+      </c>
+      <c r="E41" s="8">
+        <v>8</v>
+      </c>
+      <c r="F41" s="8">
+        <v>8</v>
+      </c>
+      <c r="G41" s="8">
+        <v>26</v>
+      </c>
+      <c r="J41" s="7">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="L41" s="7">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>8</v>
+      </c>
+      <c r="B42" s="7">
+        <v>36</v>
+      </c>
+      <c r="C42" s="8">
+        <v>39</v>
+      </c>
+      <c r="D42" s="8">
+        <v>21</v>
+      </c>
+      <c r="E42" s="8">
+        <v>24</v>
+      </c>
+      <c r="F42" s="8">
+        <v>28</v>
+      </c>
+      <c r="G42" s="8">
+        <v>44</v>
+      </c>
+      <c r="J42" s="7">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="L42" s="7">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>9</v>
+      </c>
+      <c r="B43" s="7">
+        <v>14</v>
+      </c>
+      <c r="C43" s="8">
+        <v>22</v>
+      </c>
+      <c r="D43" s="8">
+        <v>21</v>
+      </c>
+      <c r="E43" s="8">
+        <v>34</v>
+      </c>
+      <c r="F43" s="8">
+        <v>27</v>
+      </c>
+      <c r="G43" s="8">
+        <v>23</v>
+      </c>
+      <c r="J43" s="7">
+        <f t="shared" si="2"/>
+        <v>23.5</v>
+      </c>
+      <c r="L43" s="7">
+        <f t="shared" si="3"/>
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>10</v>
+      </c>
+      <c r="B44" s="7">
+        <v>12</v>
+      </c>
+      <c r="C44" s="8">
+        <v>18</v>
+      </c>
+      <c r="D44" s="8">
+        <v>22</v>
+      </c>
+      <c r="E44" s="8">
+        <v>24</v>
+      </c>
+      <c r="F44" s="8">
+        <v>2</v>
+      </c>
+      <c r="G44" s="8">
+        <v>16</v>
+      </c>
+      <c r="J44" s="7">
+        <f t="shared" si="2"/>
+        <v>15.666666666666666</v>
+      </c>
+      <c r="L44" s="7">
+        <f t="shared" si="3"/>
+        <v>64.333333333333329</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>11</v>
+      </c>
+      <c r="B45" s="7">
+        <v>6</v>
+      </c>
+      <c r="C45" s="8">
+        <v>20</v>
+      </c>
+      <c r="D45" s="8">
+        <v>11</v>
+      </c>
+      <c r="E45" s="8">
+        <v>12</v>
+      </c>
+      <c r="F45" s="8">
+        <v>21</v>
+      </c>
+      <c r="G45" s="8">
+        <v>20</v>
+      </c>
+      <c r="J45" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="L45" s="7">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>12</v>
+      </c>
+      <c r="B46" s="7">
+        <v>16</v>
+      </c>
+      <c r="C46" s="8">
+        <v>30</v>
+      </c>
+      <c r="D46" s="8">
+        <v>10</v>
+      </c>
+      <c r="E46" s="8">
+        <v>8</v>
+      </c>
+      <c r="F46" s="8">
+        <v>15</v>
+      </c>
+      <c r="G46" s="8">
+        <v>7</v>
+      </c>
+      <c r="J46" s="7">
+        <f t="shared" si="2"/>
+        <v>14.333333333333334</v>
+      </c>
+      <c r="L46" s="7">
+        <f t="shared" si="3"/>
+        <v>65.666666666666671</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>13</v>
+      </c>
+      <c r="B47" s="7">
+        <v>16</v>
+      </c>
+      <c r="C47" s="8">
+        <v>18</v>
+      </c>
+      <c r="D47" s="8">
+        <v>10</v>
+      </c>
+      <c r="E47" s="8">
+        <v>25</v>
+      </c>
+      <c r="F47" s="8">
+        <v>2</v>
+      </c>
+      <c r="G47" s="8">
+        <v>26</v>
+      </c>
+      <c r="J47" s="7">
+        <f t="shared" si="2"/>
+        <v>16.166666666666668</v>
+      </c>
+      <c r="L47" s="7">
+        <f t="shared" si="3"/>
+        <v>63.833333333333329</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>14</v>
+      </c>
+      <c r="B48" s="7">
+        <v>20</v>
+      </c>
+      <c r="C48" s="8">
+        <v>24</v>
+      </c>
+      <c r="D48" s="8">
+        <v>31</v>
+      </c>
+      <c r="E48" s="8">
+        <v>16</v>
+      </c>
+      <c r="F48" s="8">
+        <v>29</v>
+      </c>
+      <c r="G48" s="8">
+        <v>28</v>
+      </c>
+      <c r="J48" s="7">
+        <f t="shared" si="2"/>
+        <v>24.666666666666668</v>
+      </c>
+      <c r="L48" s="7">
+        <f t="shared" si="3"/>
+        <v>55.333333333333329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>15</v>
+      </c>
+      <c r="B49" s="7">
+        <v>16</v>
+      </c>
+      <c r="C49" s="8">
+        <v>22</v>
+      </c>
+      <c r="D49" s="8">
+        <v>22</v>
+      </c>
+      <c r="E49" s="8">
+        <v>22</v>
+      </c>
+      <c r="F49" s="8">
+        <v>18</v>
+      </c>
+      <c r="G49" s="8">
+        <v>19</v>
+      </c>
+      <c r="J49" s="7">
+        <f t="shared" si="2"/>
+        <v>19.833333333333332</v>
+      </c>
+      <c r="L49" s="7">
+        <f t="shared" si="3"/>
+        <v>60.166666666666671</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>16</v>
+      </c>
+      <c r="B50" s="7">
+        <v>5</v>
+      </c>
+      <c r="C50" s="8">
+        <v>14</v>
+      </c>
+      <c r="D50" s="8">
+        <v>9</v>
+      </c>
+      <c r="E50" s="8">
+        <v>14</v>
+      </c>
+      <c r="F50" s="8">
+        <v>3</v>
+      </c>
+      <c r="G50" s="8">
+        <v>14</v>
+      </c>
+      <c r="J50" s="7">
+        <f t="shared" si="2"/>
+        <v>9.8333333333333339</v>
+      </c>
+      <c r="L50" s="7">
+        <f t="shared" si="3"/>
+        <v>70.166666666666671</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>17</v>
+      </c>
+      <c r="B51" s="7">
+        <v>8</v>
+      </c>
+      <c r="C51" s="8">
+        <v>14</v>
+      </c>
+      <c r="D51" s="8">
+        <v>12</v>
+      </c>
+      <c r="E51" s="8">
+        <v>15</v>
+      </c>
+      <c r="F51" s="8">
+        <v>13</v>
+      </c>
+      <c r="G51" s="8">
+        <v>19</v>
+      </c>
+      <c r="J51" s="7">
+        <f t="shared" si="2"/>
+        <v>13.5</v>
+      </c>
+      <c r="L51" s="7">
+        <f t="shared" si="3"/>
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>18</v>
+      </c>
+      <c r="B52" s="7">
+        <v>56</v>
+      </c>
+      <c r="C52" s="8">
+        <v>57</v>
+      </c>
+      <c r="D52" s="8">
+        <v>67</v>
+      </c>
+      <c r="E52" s="8">
+        <v>58</v>
+      </c>
+      <c r="F52" s="8">
+        <v>59</v>
+      </c>
+      <c r="G52" s="8">
+        <v>62</v>
+      </c>
+      <c r="J52" s="7">
+        <f t="shared" si="2"/>
+        <v>59.833333333333336</v>
+      </c>
+      <c r="L52" s="7">
+        <f t="shared" si="3"/>
+        <v>20.166666666666664</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A34:G34"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
